--- a/excel/B-Buff.xlsx
+++ b/excel/B-Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>导出类型</t>
   </si>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>自身和相邻友军受到远程攻击时伤害-1</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
+    <t>本回合每移动一格，攻击力+1，且对目标背后的单位造成同等伤害</t>
+  </si>
+  <si>
+    <t>神圣护甲</t>
+  </si>
+  <si>
+    <t>受到的所有伤害-1</t>
+  </si>
+  <si>
+    <t>英雄集结</t>
+  </si>
+  <si>
+    <t>5费及以上的卡牌需要的费用降低1</t>
   </si>
 </sst>
 </file>
@@ -623,12 +641,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -637,6 +649,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -872,13 +890,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,13 +1043,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1041,9 +1059,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1054,6 +1069,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,9 +1240,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1277,16 +1295,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1611,13 +1629,13 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="4" width="39.1916666666667" customWidth="1"/>
+    <col min="4" max="4" width="57.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1741,17 +1759,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="2:5">
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+    <row r="11" spans="2:5">
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="2:5">
+      <c r="B12" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="11"/>

--- a/excel/B-Buff.xlsx
+++ b/excel/B-Buff.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>导出类型</t>
   </si>
@@ -55,9 +68,6 @@
     <t>buff描述</t>
   </si>
   <si>
-    <t>是否展示</t>
-  </si>
-  <si>
     <t>导出参数</t>
   </si>
   <si>
@@ -76,9 +86,6 @@
     <t>desc</t>
   </si>
   <si>
-    <t>isShow</t>
-  </si>
-  <si>
     <t>务农</t>
   </si>
   <si>
@@ -94,7 +101,7 @@
     <t>冲锋</t>
   </si>
   <si>
-    <t>本回合每移动一格，攻击力+1，且对目标背后的单位造成同等伤害</t>
+    <t>本回合每移动一格，攻击力+1</t>
   </si>
   <si>
     <t>神圣护甲</t>
@@ -107,12 +114,18 @@
   </si>
   <si>
     <t>5费及以上的卡牌需要的费用降低1</t>
+  </si>
+  <si>
+    <t>穿透攻击</t>
+  </si>
+  <si>
+    <t>对目标背后的单位造成同等伤害</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -165,6 +178,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -173,7 +288,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,145 +328,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="华文细黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="华文新魏"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -422,37 +435,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,78 +623,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -543,84 +634,6 @@
           <color theme="1"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -721,21 +734,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -746,21 +744,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,6 +762,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,6 +832,21 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -848,174 +861,174 @@
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1031,58 +1044,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -1091,97 +1104,97 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,64 +1239,64 @@
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="我的单元格1 2 2" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="黑色单元格1" xfId="12"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="我的单元格2 2 2" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="我的强调" xfId="27"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="34" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
-    <cellStyle name="汇总" xfId="36" builtinId="25"/>
-    <cellStyle name="好" xfId="37" builtinId="26"/>
-    <cellStyle name="适中" xfId="38" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
-    <cellStyle name="黑色标题 2" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="43" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="45" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="46" builtinId="37"/>
-    <cellStyle name="常规 3 2" xfId="47"/>
-    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="50" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="53" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="54" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="57" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="我的单元格1 2 2" xfId="49"/>
+    <cellStyle name="黑色单元格1" xfId="50"/>
+    <cellStyle name="黑色单元格1 2" xfId="51"/>
+    <cellStyle name="常规 6" xfId="52"/>
+    <cellStyle name="我的单元格2 2 2" xfId="53"/>
+    <cellStyle name="我的强调" xfId="54"/>
+    <cellStyle name="黑色标题 2" xfId="55"/>
+    <cellStyle name="常规 3 2" xfId="56"/>
+    <cellStyle name="常规 2 2" xfId="57"/>
+    <cellStyle name="常规 2 3" xfId="58"/>
     <cellStyle name="常规 2" xfId="59"/>
     <cellStyle name="我的外边框 2 2" xfId="60"/>
     <cellStyle name="常规 2 4" xfId="61"/>
@@ -1343,13 +1356,6 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1357,6 +1363,13 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1629,10 +1642,10 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="50.5" customWidth="1"/>
     <col min="4" max="4" width="57.1666666666667" customWidth="1"/>
@@ -1680,7 +1693,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1693,136 +1706,115 @@
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:4">
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:4">
       <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:4">
       <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:4">
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:4">
       <c r="B12" s="11">
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="11">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7 B6 B5:D5">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/B-Buff.xlsx
+++ b/excel/B-Buff.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="buff" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,36 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>导出类型</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>导出文件头</t>
-  </si>
-  <si>
-    <t>Buff={</t>
-  </si>
-  <si>
-    <t>导出文件</t>
-  </si>
-  <si>
-    <t>buff.json</t>
-  </si>
-  <si>
-    <t>导出文件尾</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>key数量</t>
-  </si>
-  <si>
-    <t>配置备注</t>
+    <t>array</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>buffName</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>id唯一</t>
@@ -68,22 +53,13 @@
     <t>buff描述</t>
   </si>
   <si>
-    <t>导出参数</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>buffName</t>
-  </si>
-  <si>
-    <t>desc</t>
+    <t>number</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>务农</t>
@@ -150,32 +126,30 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -402,7 +376,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +397,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,6 +410,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -694,15 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="23"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +717,21 @@
       <top/>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,7 +885,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,141 +897,141 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="14" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="15" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1044,58 +1047,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="44" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -1104,101 +1107,101 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1206,29 +1209,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1639,182 +1633,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
-    <col min="4" max="4" width="57.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.275" customWidth="1"/>
+    <col min="3" max="3" width="34.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="31.7333333333333" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="26.85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="15"/>
+    <row r="3" ht="30.75" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="4" ht="15" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="11">
-        <v>4</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="11">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  <conditionalFormatting sqref="A3:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7 B6 B5:D5">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
